--- a/Document/상세기능정의서.xlsx
+++ b/Document/상세기능정의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahasu\Desktop\week14_TP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\week13_pm\TEAM05-JOOONY-S\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EB45AE-3906-42B6-9DAD-9CEB7781E7BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15ED7ACC-DB77-4903-8C82-CB677CFCC020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FE17BE50-644C-4C78-8011-7B4B97B4B274}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="17060" windowHeight="11260" xr2:uid="{FE17BE50-644C-4C78-8011-7B4B97B4B274}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요구사항 정의서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GPS를 통한 사용자의 위치 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,6 +296,10 @@
   </si>
   <si>
     <t>4-1. 요청한 정보 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세기능 정의서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -307,7 +307,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,32 +367,28 @@
       <b/>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="나눔스퀘어"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="나눔스퀘어"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="7"/>
-      <name val="나눔스퀘어"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="나눔스퀘어"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -649,118 +645,118 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1084,24 +1080,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCCD5F1-3523-451B-9AA6-268777B5E5D8}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.09765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="3"/>
-    <col min="6" max="6" width="13.8984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" customWidth="1"/>
+    <col min="1" max="1" width="7.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.08203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="3"/>
+    <col min="6" max="6" width="13.9140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="36.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="9" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1109,7 +1105,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" s="7" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -1126,39 +1122,39 @@
         <v>4</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="19">
         <v>2</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A4" s="21"/>
       <c r="B4" s="22"/>
       <c r="C4" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="25">
         <v>2</v>
@@ -1166,31 +1162,31 @@
       <c r="F4" s="26"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A5" s="21"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="25">
         <v>1</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A6" s="21"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="25">
         <v>1</v>
@@ -1198,14 +1194,14 @@
       <c r="F6" s="26"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="21"/>
       <c r="B7" s="28"/>
       <c r="C7" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="25">
         <v>1</v>
@@ -1213,308 +1209,316 @@
       <c r="F7" s="29"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A8" s="21"/>
       <c r="B8" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="19">
         <v>3</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A9" s="21"/>
       <c r="B9" s="33"/>
       <c r="C9" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="25">
         <v>3</v>
       </c>
       <c r="F9" s="35"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A10" s="21"/>
       <c r="B10" s="33"/>
       <c r="C10" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="25">
         <v>3</v>
       </c>
       <c r="F10" s="35"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A11" s="21"/>
       <c r="B11" s="33"/>
       <c r="C11" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="25">
         <v>2</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="21"/>
       <c r="B12" s="37"/>
       <c r="C12" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="39">
         <v>2</v>
       </c>
       <c r="F12" s="29"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A13" s="21"/>
       <c r="B13" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="19">
         <v>5</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A14" s="21"/>
       <c r="B14" s="33"/>
       <c r="C14" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="25">
         <v>5</v>
       </c>
       <c r="F14" s="35"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A15" s="21"/>
       <c r="B15" s="33"/>
       <c r="C15" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="25">
         <v>5</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="21"/>
       <c r="B16" s="37"/>
       <c r="C16" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="39">
         <v>5</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="21"/>
       <c r="B17" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="47">
         <v>2</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A18" s="21"/>
       <c r="B18" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="25">
         <v>4</v>
       </c>
       <c r="F18" s="35"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A19" s="21"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" s="25">
         <v>4</v>
       </c>
       <c r="F19" s="35"/>
     </row>
-    <row r="20" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="48"/>
       <c r="B20" s="28"/>
       <c r="C20" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="39">
         <v>4</v>
       </c>
       <c r="F20" s="49"/>
     </row>
-    <row r="21" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="25">
         <v>1</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="21"/>
       <c r="B22" s="28"/>
       <c r="C22" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="39">
         <v>1</v>
       </c>
       <c r="F22" s="43" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A23" s="21"/>
       <c r="B23" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="19">
         <v>2</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A24" s="21"/>
       <c r="B24" s="22"/>
       <c r="C24" s="51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" s="25">
         <v>2</v>
       </c>
       <c r="F24" s="26"/>
     </row>
-    <row r="25" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="48"/>
       <c r="B25" s="28"/>
       <c r="C25" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" s="39">
         <v>2</v>
       </c>
       <c r="F25" s="29"/>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C35" s="2"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C37" s="2"/>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.45">
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.45">
       <c r="H40" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F23:F25"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F17:F20"/>
     <mergeCell ref="A1:F1"/>
@@ -1523,14 +1527,6 @@
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F23:F25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
